--- a/result.xlsx
+++ b/result.xlsx
@@ -1,109 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="16060" windowWidth="25600" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="140001" concurrentCalc="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
-  <si>
-    <t>SimID</t>
-  </si>
-  <si>
-    <t>SimulationTime</t>
-  </si>
-  <si>
-    <t>TotalCarNum</t>
-  </si>
-  <si>
-    <t>TotalPedNumber</t>
-  </si>
-  <si>
-    <t>CarAverageWaitingTime</t>
-  </si>
-  <si>
-    <t>carMaxNumAtJunction</t>
-  </si>
-  <si>
-    <t>carMaxWaitingtimeAtJunction</t>
-  </si>
-  <si>
-    <t>carLightGreenMinTime</t>
-  </si>
-  <si>
-    <t>pedMaxNumAtJunction</t>
-  </si>
-  <si>
-    <t>pedMaxWaitingtimeAtJunction</t>
-  </si>
-  <si>
-    <t>pedLightGreenMinTime</t>
-  </si>
-  <si>
-    <t>pedLightFlashLongerTime</t>
-  </si>
-  <si>
-    <t>simulator result</t>
-  </si>
-  <si>
-    <t>counting =</t>
-  </si>
-  <si>
-    <t>ITLS value</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <color theme="11"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -116,7 +62,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.5999938962981048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -136,28 +82,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="3">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已瀏覽過的超連結" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="超連結" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超連結" xfId="3" builtinId="8" hidden="1"/>
+  <cellStyles count="3">
+    <cellStyle builtinId="0" name="一般" xfId="0"/>
+    <cellStyle builtinId="8" hidden="1" name="超連結" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="已瀏覽過的超連結" xfId="2"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -445,95 +386,1148 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M2"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="18.5" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="23" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" customWidth="1"/>
-    <col min="11" max="11" width="22.5" customWidth="1"/>
-    <col min="12" max="12" width="18" customWidth="1"/>
-    <col min="13" max="13" width="19.5" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="5.83203125"/>
+    <col customWidth="1" max="2" min="2" width="13"/>
+    <col customWidth="1" max="3" min="3" width="11"/>
+    <col customWidth="1" max="4" min="4" width="12.5"/>
+    <col customWidth="1" max="5" min="5" width="19"/>
+    <col customWidth="1" max="6" min="6" width="18.5"/>
+    <col customWidth="1" max="7" min="7" width="17"/>
+    <col customWidth="1" max="8" min="8" width="23"/>
+    <col customWidth="1" max="9" min="9" width="17.6640625"/>
+    <col customWidth="1" max="10" min="10" width="17.33203125"/>
+    <col customWidth="1" max="11" min="11" width="22.5"/>
+    <col customWidth="1" max="12" min="12" width="18"/>
+    <col customWidth="1" max="13" min="13" width="19.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>SimID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>SimulationTime</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>TotalCarNum</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>TotalPedNumber</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>CarAverageWaitingTime</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>CarAverageWaitingTime</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>carMaxNumAtJunction</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>carMaxWaitingtimeAtJunction</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>carLightGreenMinTime</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>pedMaxNumAtJunction</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>pedMaxWaitingtimeAtJunction</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>pedLightGreenMinTime</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>pedLightFlashLongerTime</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="n"/>
+      <c r="P1" s="3" t="inlineStr">
+        <is>
+          <t>simulator result</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>counting =</t>
+        </is>
+      </c>
+      <c r="U1" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="n">
+        <v>600.1666666666666</v>
+      </c>
+      <c r="C2" t="n">
+        <v>400</v>
+      </c>
+      <c r="D2" t="n">
+        <v>387</v>
+      </c>
+      <c r="E2" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="F2" t="n">
+        <v>10.82256675279931</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>37</v>
+      </c>
+      <c r="I2" t="n">
+        <v>14</v>
+      </c>
+      <c r="J2" t="n">
+        <v>6</v>
+      </c>
+      <c r="K2" t="n">
+        <v>14</v>
+      </c>
+      <c r="L2" t="n">
+        <v>20</v>
+      </c>
+      <c r="M2" t="n">
+        <v>10</v>
+      </c>
+      <c r="O2" s="2" t="n"/>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>ITLS value</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="n">
+        <v>600.1666666666666</v>
+      </c>
+      <c r="C3" t="n">
+        <v>404</v>
+      </c>
+      <c r="D3" t="n">
+        <v>394</v>
+      </c>
+      <c r="E3" t="n">
+        <v>12.99298679867987</v>
+      </c>
+      <c r="F3" t="n">
+        <v>11.00719120135364</v>
+      </c>
+      <c r="G3" t="n">
+        <v>15</v>
+      </c>
+      <c r="H3" t="n">
+        <v>50</v>
+      </c>
+      <c r="I3" t="n">
+        <v>20</v>
+      </c>
+      <c r="J3" t="n">
+        <v>15</v>
+      </c>
+      <c r="K3" t="n">
+        <v>47</v>
+      </c>
+      <c r="L3" t="n">
+        <v>18</v>
+      </c>
+      <c r="M3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="n">
+        <v>600.1666666666666</v>
+      </c>
+      <c r="C4" t="n">
+        <v>405</v>
+      </c>
+      <c r="D4" t="n">
+        <v>408</v>
+      </c>
+      <c r="E4" t="n">
+        <v>14.03909465020576</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9.330882352941178</v>
+      </c>
+      <c r="G4" t="n">
+        <v>13</v>
+      </c>
+      <c r="H4" t="n">
+        <v>47</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8</v>
+      </c>
+      <c r="K4" t="n">
+        <v>18</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" t="n">
+        <v>600.1666666666666</v>
+      </c>
+      <c r="C5" t="n">
+        <v>400</v>
+      </c>
+      <c r="D5" t="n">
+        <v>367</v>
+      </c>
+      <c r="E5" t="n">
+        <v>11.13166666666667</v>
+      </c>
+      <c r="F5" t="n">
+        <v>11.34241598546776</v>
+      </c>
+      <c r="G5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H5" t="n">
+        <v>24</v>
+      </c>
+      <c r="I5" t="n">
+        <v>18</v>
+      </c>
+      <c r="J5" t="n">
+        <v>12</v>
+      </c>
+      <c r="K5" t="n">
+        <v>9</v>
+      </c>
+      <c r="L5" t="n">
+        <v>19</v>
+      </c>
+      <c r="M5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>600.1666666666666</v>
+      </c>
+      <c r="C6" t="n">
+        <v>364</v>
+      </c>
+      <c r="D6" t="n">
+        <v>391</v>
+      </c>
+      <c r="E6" t="n">
+        <v>10.6771978021978</v>
+      </c>
+      <c r="F6" t="n">
+        <v>9.934782608695652</v>
+      </c>
+      <c r="G6" t="n">
+        <v>12</v>
+      </c>
+      <c r="H6" t="n">
+        <v>16</v>
+      </c>
+      <c r="I6" t="n">
+        <v>15</v>
+      </c>
+      <c r="J6" t="n">
+        <v>17</v>
+      </c>
+      <c r="K6" t="n">
+        <v>39</v>
+      </c>
+      <c r="L6" t="n">
+        <v>5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>600.1666666666666</v>
+      </c>
+      <c r="C7" t="n">
+        <v>423</v>
+      </c>
+      <c r="D7" t="n">
+        <v>414</v>
+      </c>
+      <c r="E7" t="n">
+        <v>11.36012608353034</v>
+      </c>
+      <c r="F7" t="n">
+        <v>10.17673107890499</v>
+      </c>
+      <c r="G7" t="n">
+        <v>9</v>
+      </c>
+      <c r="H7" t="n">
+        <v>41</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15</v>
+      </c>
+      <c r="J7" t="n">
+        <v>17</v>
+      </c>
+      <c r="K7" t="n">
+        <v>36</v>
+      </c>
+      <c r="L7" t="n">
+        <v>17</v>
+      </c>
+      <c r="M7" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>600.1666666666666</v>
+      </c>
+      <c r="C8" t="n">
+        <v>390</v>
+      </c>
+      <c r="D8" t="n">
+        <v>435</v>
+      </c>
+      <c r="E8" t="n">
+        <v>12.67948717948718</v>
+      </c>
+      <c r="F8" t="n">
+        <v>9.218773946360153</v>
+      </c>
+      <c r="G8" t="n">
+        <v>11</v>
+      </c>
+      <c r="H8" t="n">
+        <v>19</v>
+      </c>
+      <c r="I8" t="n">
+        <v>12</v>
+      </c>
+      <c r="J8" t="n">
+        <v>14</v>
+      </c>
+      <c r="K8" t="n">
+        <v>6</v>
+      </c>
+      <c r="L8" t="n">
+        <v>6</v>
+      </c>
+      <c r="M8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>600.1666666666666</v>
+      </c>
+      <c r="C9" t="n">
+        <v>391</v>
+      </c>
+      <c r="D9" t="n">
+        <v>413</v>
+      </c>
+      <c r="E9" t="n">
+        <v>18.81372549019608</v>
+      </c>
+      <c r="F9" t="n">
+        <v>9.931396287328489</v>
+      </c>
+      <c r="G9" t="n">
+        <v>13</v>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I9" t="n">
+        <v>13</v>
+      </c>
+      <c r="J9" t="n">
+        <v>13</v>
+      </c>
+      <c r="K9" t="n">
+        <v>35</v>
+      </c>
+      <c r="L9" t="n">
+        <v>7</v>
+      </c>
+      <c r="M9" t="n">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>600.1666666666666</v>
+      </c>
+      <c r="C10" t="n">
+        <v>393</v>
+      </c>
+      <c r="D10" t="n">
+        <v>405</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10.45759117896523</v>
+      </c>
+      <c r="F10" t="n">
+        <v>9.461316872427982</v>
+      </c>
+      <c r="G10" t="n">
+        <v>12</v>
+      </c>
+      <c r="H10" t="n">
+        <v>14</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>16</v>
+      </c>
+      <c r="K10" t="n">
+        <v>28</v>
+      </c>
+      <c r="L10" t="n">
+        <v>15</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>600.1666666666666</v>
+      </c>
+      <c r="C11" t="n">
+        <v>401</v>
+      </c>
+      <c r="D11" t="n">
+        <v>415</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10.62510390689942</v>
+      </c>
+      <c r="F11" t="n">
+        <v>8.485140562248995</v>
+      </c>
+      <c r="G11" t="n">
+        <v>10</v>
+      </c>
+      <c r="H11" t="n">
+        <v>46</v>
+      </c>
+      <c r="I11" t="n">
+        <v>12</v>
+      </c>
+      <c r="J11" t="n">
+        <v>12</v>
+      </c>
+      <c r="K11" t="n">
+        <v>49</v>
+      </c>
+      <c r="L11" t="n">
+        <v>19</v>
+      </c>
+      <c r="M11" t="n">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>600.1666666666666</v>
+      </c>
+      <c r="C12" t="n">
+        <v>396</v>
+      </c>
+      <c r="D12" t="n">
+        <v>379</v>
+      </c>
+      <c r="E12" t="n">
+        <v>15.31691919191919</v>
+      </c>
+      <c r="F12" t="n">
+        <v>8.067722075637644</v>
+      </c>
+      <c r="G12" t="n">
+        <v>8</v>
+      </c>
+      <c r="H12" t="n">
+        <v>50</v>
+      </c>
+      <c r="I12" t="n">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>47</v>
+      </c>
+      <c r="L12" t="n">
+        <v>18</v>
+      </c>
+      <c r="M12" t="n">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>600.1666666666666</v>
+      </c>
+      <c r="C13" t="n">
+        <v>405</v>
+      </c>
+      <c r="D13" t="n">
+        <v>390</v>
+      </c>
+      <c r="E13" t="n">
+        <v>13.24444444444444</v>
+      </c>
+      <c r="F13" t="n">
+        <v>10.41794871794872</v>
+      </c>
+      <c r="G13" t="n">
+        <v>7</v>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+      <c r="I13" t="n">
+        <v>12</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>12</v>
+      </c>
+      <c r="L13" t="n">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>600.1666666666666</v>
+      </c>
+      <c r="C14" t="n">
+        <v>397</v>
+      </c>
+      <c r="D14" t="n">
+        <v>422</v>
+      </c>
+      <c r="E14" t="n">
+        <v>11.07892527287993</v>
+      </c>
+      <c r="F14" t="n">
+        <v>12.73696682464455</v>
+      </c>
+      <c r="G14" t="n">
+        <v>8</v>
+      </c>
+      <c r="H14" t="n">
+        <v>54</v>
+      </c>
+      <c r="I14" t="n">
+        <v>20</v>
+      </c>
+      <c r="J14" t="n">
+        <v>19</v>
+      </c>
+      <c r="K14" t="n">
+        <v>51</v>
+      </c>
+      <c r="L14" t="n">
+        <v>17</v>
+      </c>
+      <c r="M14" t="n">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>600.1666666666666</v>
+      </c>
+      <c r="C15" t="n">
+        <v>394</v>
+      </c>
+      <c r="D15" t="n">
+        <v>416</v>
+      </c>
+      <c r="E15" t="n">
+        <v>11.68147208121827</v>
+      </c>
+      <c r="F15" t="n">
+        <v>8.382612179487179</v>
+      </c>
+      <c r="G15" t="n">
+        <v>12</v>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+      <c r="I15" t="n">
+        <v>7</v>
+      </c>
+      <c r="J15" t="n">
+        <v>13</v>
+      </c>
+      <c r="K15" t="n">
+        <v>50</v>
+      </c>
+      <c r="L15" t="n">
+        <v>7</v>
+      </c>
+      <c r="M15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>600.1666666666666</v>
+      </c>
+      <c r="C16" t="n">
+        <v>386</v>
+      </c>
+      <c r="D16" t="n">
+        <v>396</v>
+      </c>
+      <c r="E16" t="n">
+        <v>13.29274611398964</v>
+      </c>
+      <c r="F16" t="n">
+        <v>7.821548821548821</v>
+      </c>
+      <c r="G16" t="n">
+        <v>13</v>
+      </c>
+      <c r="H16" t="n">
+        <v>25</v>
+      </c>
+      <c r="I16" t="n">
+        <v>12</v>
+      </c>
+      <c r="J16" t="n">
+        <v>18</v>
+      </c>
+      <c r="K16" t="n">
+        <v>25</v>
+      </c>
+      <c r="L16" t="n">
+        <v>17</v>
+      </c>
+      <c r="M16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>600.1666666666666</v>
+      </c>
+      <c r="C17" t="n">
+        <v>397</v>
+      </c>
+      <c r="D17" t="n">
+        <v>382</v>
+      </c>
+      <c r="E17" t="n">
+        <v>9.920235096557516</v>
+      </c>
+      <c r="F17" t="n">
+        <v>11.1108202443281</v>
+      </c>
+      <c r="G17" t="n">
+        <v>6</v>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+      <c r="I17" t="n">
+        <v>19</v>
+      </c>
+      <c r="J17" t="n">
+        <v>9</v>
+      </c>
+      <c r="K17" t="n">
+        <v>21</v>
+      </c>
+      <c r="L17" t="n">
+        <v>17</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>600.1666666666666</v>
+      </c>
+      <c r="C18" t="n">
+        <v>414</v>
+      </c>
+      <c r="D18" t="n">
+        <v>412</v>
+      </c>
+      <c r="E18" t="n">
+        <v>13.41747181964573</v>
+      </c>
+      <c r="F18" t="n">
+        <v>7.48826860841424</v>
+      </c>
+      <c r="G18" t="n">
+        <v>14</v>
+      </c>
+      <c r="H18" t="n">
+        <v>28</v>
+      </c>
+      <c r="I18" t="n">
         <v>11</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="3" t="s">
+      <c r="J18" t="n">
+        <v>16</v>
+      </c>
+      <c r="K18" t="n">
+        <v>44</v>
+      </c>
+      <c r="L18" t="n">
+        <v>10</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>600.1666666666666</v>
+      </c>
+      <c r="C19" t="n">
+        <v>380</v>
+      </c>
+      <c r="D19" t="n">
+        <v>409</v>
+      </c>
+      <c r="E19" t="n">
+        <v>12.15701754385965</v>
+      </c>
+      <c r="F19" t="n">
+        <v>9.312143439282805</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" t="n">
+        <v>47</v>
+      </c>
+      <c r="I19" t="n">
+        <v>13</v>
+      </c>
+      <c r="J19" t="n">
+        <v>17</v>
+      </c>
+      <c r="K19" t="n">
+        <v>27</v>
+      </c>
+      <c r="L19" t="n">
+        <v>20</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>600.1666666666666</v>
+      </c>
+      <c r="C20" t="n">
+        <v>415</v>
+      </c>
+      <c r="D20" t="n">
+        <v>380</v>
+      </c>
+      <c r="E20" t="n">
+        <v>11.36987951807229</v>
+      </c>
+      <c r="F20" t="n">
+        <v>10.92631578947368</v>
+      </c>
+      <c r="G20" t="n">
         <v>12</v>
       </c>
-      <c r="T1" t="s">
+      <c r="H20" t="n">
+        <v>35</v>
+      </c>
+      <c r="I20" t="n">
+        <v>19</v>
+      </c>
+      <c r="J20" t="n">
+        <v>9</v>
+      </c>
+      <c r="K20" t="n">
+        <v>60</v>
+      </c>
+      <c r="L20" t="n">
+        <v>19</v>
+      </c>
+      <c r="M20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>600.1666666666666</v>
+      </c>
+      <c r="C21" t="n">
+        <v>382</v>
+      </c>
+      <c r="D21" t="n">
+        <v>380</v>
+      </c>
+      <c r="E21" t="n">
+        <v>11.23080279232112</v>
+      </c>
+      <c r="F21" t="n">
+        <v>7.975438596491228</v>
+      </c>
+      <c r="G21" t="n">
         <v>13</v>
       </c>
-      <c r="U1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="O2" s="2"/>
-      <c r="P2" t="s">
+      <c r="H21" t="n">
+        <v>11</v>
+      </c>
+      <c r="I21" t="n">
+        <v>9</v>
+      </c>
+      <c r="J21" t="n">
+        <v>13</v>
+      </c>
+      <c r="K21" t="n">
+        <v>17</v>
+      </c>
+      <c r="L21" t="n">
+        <v>6</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>600.1666666666666</v>
+      </c>
+      <c r="C22" t="n">
+        <v>404</v>
+      </c>
+      <c r="D22" t="n">
+        <v>391</v>
+      </c>
+      <c r="E22" t="n">
+        <v>12.89067656765677</v>
+      </c>
+      <c r="F22" t="n">
+        <v>8.762148337595908</v>
+      </c>
+      <c r="G22" t="n">
+        <v>5</v>
+      </c>
+      <c r="H22" t="n">
+        <v>48</v>
+      </c>
+      <c r="I22" t="n">
+        <v>7</v>
+      </c>
+      <c r="J22" t="n">
+        <v>15</v>
+      </c>
+      <c r="K22" t="n">
+        <v>38</v>
+      </c>
+      <c r="L22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>600.1666666666666</v>
+      </c>
+      <c r="C23" t="n">
+        <v>401</v>
+      </c>
+      <c r="D23" t="n">
+        <v>426</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10.41562759767248</v>
+      </c>
+      <c r="F23" t="n">
+        <v>7.486697965571206</v>
+      </c>
+      <c r="G23" t="n">
+        <v>9</v>
+      </c>
+      <c r="H23" t="n">
+        <v>38</v>
+      </c>
+      <c r="I23" t="n">
+        <v>10</v>
+      </c>
+      <c r="J23" t="n">
+        <v>17</v>
+      </c>
+      <c r="K23" t="n">
+        <v>11</v>
+      </c>
+      <c r="L23" t="n">
+        <v>10</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>600.1666666666666</v>
+      </c>
+      <c r="C24" t="n">
+        <v>373</v>
+      </c>
+      <c r="D24" t="n">
+        <v>405</v>
+      </c>
+      <c r="E24" t="n">
+        <v>13.0857908847185</v>
+      </c>
+      <c r="F24" t="n">
+        <v>9.819341563786008</v>
+      </c>
+      <c r="G24" t="n">
+        <v>6</v>
+      </c>
+      <c r="H24" t="n">
+        <v>44</v>
+      </c>
+      <c r="I24" t="n">
         <v>14</v>
       </c>
+      <c r="J24" t="n">
+        <v>6</v>
+      </c>
+      <c r="K24" t="n">
+        <v>32</v>
+      </c>
+      <c r="L24" t="n">
+        <v>17</v>
+      </c>
+      <c r="M24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>600.1666666666666</v>
+      </c>
+      <c r="C25" t="n">
+        <v>403</v>
+      </c>
+      <c r="D25" t="n">
+        <v>382</v>
+      </c>
+      <c r="E25" t="n">
+        <v>12.53804797353184</v>
+      </c>
+      <c r="F25" t="n">
+        <v>7.25130890052356</v>
+      </c>
+      <c r="G25" t="n">
+        <v>11</v>
+      </c>
+      <c r="H25" t="n">
+        <v>33</v>
+      </c>
+      <c r="I25" t="n">
+        <v>9</v>
+      </c>
+      <c r="J25" t="n">
+        <v>13</v>
+      </c>
+      <c r="K25" t="n">
+        <v>44</v>
+      </c>
+      <c r="L25" t="n">
+        <v>19</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>600.1666666666666</v>
+      </c>
+      <c r="C26" t="n">
+        <v>441</v>
+      </c>
+      <c r="D26" t="n">
+        <v>376</v>
+      </c>
+      <c r="E26" t="n">
+        <v>13.78684807256236</v>
+      </c>
+      <c r="F26" t="n">
+        <v>11.5988475177305</v>
+      </c>
+      <c r="G26" t="n">
+        <v>15</v>
+      </c>
+      <c r="H26" t="n">
+        <v>19</v>
+      </c>
+      <c r="I26" t="n">
+        <v>20</v>
+      </c>
+      <c r="J26" t="n">
+        <v>11</v>
+      </c>
+      <c r="K26" t="n">
+        <v>21</v>
+      </c>
+      <c r="L26" t="n">
+        <v>15</v>
+      </c>
+      <c r="M26" t="n">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup horizontalDpi="4294967292" orientation="portrait" paperSize="9" verticalDpi="4294967292"/>
 </worksheet>
 </file>